--- a/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2019 (J19).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2019 (J19).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,259 +444,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chalice of the Void</t>
+          <t>('Chalice of the Void', ['{X}{X}', 'Artifact', 'Chalice of the Void enters the battlefield with X charge counters on it.', 'Whenever a player casts a spell with converted mana cost equal to the number of charge counters on Chalice of the Void, counter that spell.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{X}{X}</t>
+          <t>('Isolated Watchtower', ['Land', '{T}: Add {C}.', '{2}, {T}: Scry 1, then you may reveal the top card of your library. If a basic land card is revealed this way, put it onto the battlefield tapped. Activate this ability only if an opponent controls at least two more lands than you.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Artifact</t>
+          <t>("Mirri's Guile", ['{G}', 'Enchantment', 'At the beginning of your upkeep, you may look at the top three cards of your library, then put them back in any order.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chalice of the Void enters the battlefield with X charge counters on it.</t>
+          <t>('Monastery Mentor', ['{2}{W}', 'Creature — Human Monk', 'Prowess (Whenever you cast a noncreature spell, this creature gets +1/+1 until end of turn.)', 'Whenever you cast a noncreature spell, create a 1/1 white Monk creature token with prowess.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Whenever a player casts a spell with converted mana cost equal to the number of charge counters on Chalice of the Void, counter that spell.</t>
+          <t>('Mox Opal', ['{0}', 'Legendary Artifact', 'Metalcraft — {T}: Add one mana of any color. Activate this ability only if you control three or more artifacts.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Isolated Watchtower</t>
+          <t>('Reflecting Pool', ['Land', '{T}: Add one mana of any type that a land you control could produce.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>('Sliver Legion', ['{W}{U}{B}{R}{G}', 'Legendary Creature — Sliver', 'All Sliver creatures get +1/+1 for each other Sliver on the battlefield.', '7/7'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{T}: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{2}, {T}: Scry 1, then you may reveal the top card of your library. If a basic land card is revealed this way, put it onto the battlefield tapped. Activate this ability only if an opponent controls at least two more lands than you.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Mirri's Guile</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>At the beginning of your upkeep, you may look at the top three cards of your library, then put them back in any order.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Monastery Mentor</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{2}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Creature — Human Monk</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Prowess (Whenever you cast a noncreature spell, this creature gets +1/+1 until end of turn.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Whenever you cast a noncreature spell, create a 1/1 white Monk creature token with prowess.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Mox Opal</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{0}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Legendary Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Metalcraft — {T}: Add one mana of any color. Activate this ability only if you control three or more artifacts.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Reflecting Pool</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{T}: Add one mana of any type that a land you control could produce.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Sliver Legion</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>{W}{U}{B}{R}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Sliver</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>All Sliver creatures get +1/+1 for each other Sliver on the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>7/7</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Yuriko, the Tiger's Shadow</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>{1}{U}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Human Ninja</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Commander ninjutsu {U}{B} ({U}{B}, Return an unblocked attacker you control to hand: Put this card onto the battlefield from your hand or the command zone tapped and attacking.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Whenever a Ninja you control deals combat damage to a player, reveal the top card of your library and put that card into your hand. Each opponent loses life equal to that card’s converted mana cost.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>1/3</t>
+          <t>("Yuriko, the Tiger's Shadow", ['{1}{U}{B}', 'Legendary Creature — Human Ninja', 'Commander ninjutsu {U}{B} ({U}{B}, Return an unblocked attacker you control to hand: Put this card onto the battlefield from your hand or the command zone tapped and attacking.)', 'Whenever a Ninja you control deals combat damage to a player, reveal the top card of your library and put that card into your hand. Each opponent loses life equal to that card’s converted mana cost.', '1/3'])</t>
         </is>
       </c>
     </row>
